--- a/biology/Histoire de la zoologie et de la botanique/Robert_Edmond_Grant/Robert_Edmond_Grant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Edmond_Grant/Robert_Edmond_Grant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Edmond Grant est un zoologiste britannique, né en 1793 et mort en 1874.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grant est l’un des professeurs-fondateurs de l’université de Londres et occupe, de 1827 à 1874, les chaires combinées de zoologie et d’anatomie comparée de 1827 à 1874. Il occupe de plus la chaire fullerienne de physiologie de 1837 à 1840 et la chaire de conférencier Swiney au British Museum de 1853 à 1857.
 Son œuvre zoologique principale est consacrée aux éponges. Outre la petite douzaine de genres et d’espèces qu’il décrit, il met en évidence le rôle des pores pour faire entrer et sortir l’eau. Il approfondit les recherches de Jean-Baptiste de Lamarck (1744-1829) et de Jean Vincent Félix Lamouroux (1779-1825) sur les zoophytes coloniaux. Il est un fervent partisan des thèses transformistes de Lamarck ainsi que de ses travaux zoologiques.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adrian Desmond et Sarah E. Parker (2006). The Bibliography of Robert Edmond Grant (1793-1874) : illustrated with a previosly un published photograph, Archives of natural history, 33 (2) : 202-213. Cet article donne la liste des œuvres de R.E. Grant.</t>
         </is>
